--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N2">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O2">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P2">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q2">
-        <v>42.31236117468667</v>
+        <v>2.429562428496</v>
       </c>
       <c r="R2">
-        <v>253.8741670481201</v>
+        <v>9.718249713983999</v>
       </c>
       <c r="S2">
-        <v>0.0922405322625888</v>
+        <v>0.004545740255793423</v>
       </c>
       <c r="T2">
-        <v>0.07990977825278192</v>
+        <v>0.002633057573068563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P3">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q3">
-        <v>117.3806819907133</v>
+        <v>12.216161253366</v>
       </c>
       <c r="R3">
-        <v>1056.42613791642</v>
+        <v>73.29696752019601</v>
       </c>
       <c r="S3">
-        <v>0.2558887351965238</v>
+        <v>0.02285658327992254</v>
       </c>
       <c r="T3">
-        <v>0.3325221285919294</v>
+        <v>0.01985904263545562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N4">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O4">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P4">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q4">
-        <v>15.95248921107667</v>
+        <v>3.32875914882</v>
       </c>
       <c r="R4">
-        <v>143.57240289969</v>
+        <v>19.97255489292</v>
       </c>
       <c r="S4">
-        <v>0.03477626998096291</v>
+        <v>0.006228148034870155</v>
       </c>
       <c r="T4">
-        <v>0.04519104488783492</v>
+        <v>0.00541135373776805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N5">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O5">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P5">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q5">
-        <v>146.42584443557</v>
+        <v>14.2933978280835</v>
       </c>
       <c r="R5">
-        <v>878.5550666134201</v>
+        <v>57.173591312334</v>
       </c>
       <c r="S5">
-        <v>0.3192069043836815</v>
+        <v>0.02674311766477682</v>
       </c>
       <c r="T5">
-        <v>0.2765351881691435</v>
+        <v>0.01549058338847249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H6">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I6">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J6">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N6">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O6">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P6">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q6">
-        <v>10.10331966031222</v>
+        <v>1.085265947997</v>
       </c>
       <c r="R6">
-        <v>90.92987694281</v>
+        <v>6.511595687982</v>
       </c>
       <c r="S6">
-        <v>0.02202513774258022</v>
+        <v>0.002030545521361933</v>
       </c>
       <c r="T6">
-        <v>0.02862121178983697</v>
+        <v>0.00176424838253851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H7">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I7">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J7">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N7">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O7">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P7">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q7">
-        <v>9.405240042573334</v>
+        <v>4.207721712957</v>
       </c>
       <c r="R7">
-        <v>84.64716038316</v>
+        <v>25.246330277742</v>
       </c>
       <c r="S7">
-        <v>0.02050333102430089</v>
+        <v>0.007872697466599051</v>
       </c>
       <c r="T7">
-        <v>0.0266436553769722</v>
+        <v>0.006840227724787213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N8">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O8">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P8">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q8">
-        <v>0.3685980735973333</v>
+        <v>23.34478801328</v>
       </c>
       <c r="R8">
-        <v>2.211588441584</v>
+        <v>140.06872807968</v>
       </c>
       <c r="S8">
-        <v>0.0008035401843734304</v>
+        <v>0.04367837656290353</v>
       </c>
       <c r="T8">
-        <v>0.000696122587060603</v>
+        <v>0.03795014905714841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P9">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q9">
-        <v>1.022544997682667</v>
+        <v>117.3806819907133</v>
       </c>
       <c r="R9">
-        <v>9.202904979144</v>
+        <v>1056.42613791642</v>
       </c>
       <c r="S9">
-        <v>0.002229138063444299</v>
+        <v>0.2196206547810262</v>
       </c>
       <c r="T9">
-        <v>0.002896718893125622</v>
+        <v>0.2862275537976554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H10">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I10">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J10">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N10">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O10">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P10">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q10">
-        <v>0.1389678247453333</v>
+        <v>31.98484458148889</v>
       </c>
       <c r="R10">
-        <v>1.250710422708</v>
+        <v>287.8636012333999</v>
       </c>
       <c r="S10">
-        <v>0.0003029484946246001</v>
+        <v>0.05984402536195605</v>
       </c>
       <c r="T10">
-        <v>0.000393675314424944</v>
+        <v>0.07799361588205848</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H11">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I11">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J11">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N11">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O11">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P11">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q11">
-        <v>1.275567769924</v>
+        <v>137.3400981067383</v>
       </c>
       <c r="R11">
-        <v>7.653406619544</v>
+        <v>824.0405886404299</v>
       </c>
       <c r="S11">
-        <v>0.002780725224693501</v>
+        <v>0.2569649601821073</v>
       </c>
       <c r="T11">
-        <v>0.002408996681140123</v>
+        <v>0.2232651327443687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H12">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I12">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J12">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N12">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O12">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P12">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q12">
-        <v>0.08801362203244444</v>
+        <v>10.42792858371</v>
       </c>
       <c r="R12">
-        <v>0.7921225982919999</v>
+        <v>93.85135725338999</v>
       </c>
       <c r="S12">
-        <v>0.0001918688325880482</v>
+        <v>0.01951077864537675</v>
       </c>
       <c r="T12">
-        <v>0.0002493295868363535</v>
+        <v>0.02542803840523012</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H13">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I13">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J13">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N13">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O13">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P13">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q13">
-        <v>0.08193240143466667</v>
+        <v>40.43047844984333</v>
       </c>
       <c r="R13">
-        <v>0.7373916129119999</v>
+        <v>363.87430604859</v>
       </c>
       <c r="S13">
-        <v>0.0001786118313436738</v>
+        <v>0.07564590697272709</v>
       </c>
       <c r="T13">
-        <v>0.0002321023874086816</v>
+        <v>0.09858791710277363</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H14">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I14">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J14">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N14">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O14">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P14">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q14">
-        <v>9.670218007493002</v>
+        <v>0.532704429504</v>
       </c>
       <c r="R14">
-        <v>38.68087202997201</v>
+        <v>3.196226577024</v>
       </c>
       <c r="S14">
-        <v>0.02108098038830447</v>
+        <v>0.0009966963356174527</v>
       </c>
       <c r="T14">
-        <v>0.01217524391110429</v>
+        <v>0.0008659839828735967</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H15">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I15">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J15">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P15">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q15">
-        <v>26.826599915617</v>
+        <v>2.678508333384</v>
       </c>
       <c r="R15">
-        <v>160.959599493702</v>
+        <v>24.106575000456</v>
       </c>
       <c r="S15">
-        <v>0.05848172463824588</v>
+        <v>0.005011521010422905</v>
       </c>
       <c r="T15">
-        <v>0.05066386254557507</v>
+        <v>0.006531423016879322</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H16">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I16">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J16">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N16">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O16">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P16">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q16">
-        <v>3.645838808106499</v>
+        <v>0.7298617736799999</v>
       </c>
       <c r="R16">
-        <v>21.875032848639</v>
+        <v>6.56875596312</v>
       </c>
       <c r="S16">
-        <v>0.007947892834790166</v>
+        <v>0.001365580076012205</v>
       </c>
       <c r="T16">
-        <v>0.006885415103600267</v>
+        <v>0.001779735358049566</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H17">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I17">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J17">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N17">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O17">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P17">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q17">
-        <v>33.4646849836005</v>
+        <v>3.133962003354</v>
       </c>
       <c r="R17">
-        <v>133.858739934402</v>
+        <v>18.803772020124</v>
       </c>
       <c r="S17">
-        <v>0.07295268496464452</v>
+        <v>0.005863680254387312</v>
       </c>
       <c r="T17">
-        <v>0.0421335591160301</v>
+        <v>0.005094684308080518</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H18">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I18">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J18">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N18">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O18">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P18">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q18">
-        <v>2.309048727185167</v>
+        <v>0.237954773628</v>
       </c>
       <c r="R18">
-        <v>13.854292363111</v>
+        <v>2.141592962652</v>
       </c>
       <c r="S18">
-        <v>0.005033703572733556</v>
+        <v>0.0004452162170653158</v>
       </c>
       <c r="T18">
-        <v>0.004360795914991888</v>
+        <v>0.0005802420944820018</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H19">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I19">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J19">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N19">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O19">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P19">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q19">
-        <v>2.149507120366</v>
+        <v>0.9225825886680001</v>
       </c>
       <c r="R19">
-        <v>12.897042722196</v>
+        <v>8.303243298012001</v>
       </c>
       <c r="S19">
-        <v>0.004685904435023593</v>
+        <v>0.00172616301742795</v>
       </c>
       <c r="T19">
-        <v>0.004059490715540169</v>
+        <v>0.002249676463386388</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H20">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I20">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J20">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N20">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O20">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P20">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q20">
-        <v>2.715099657186667</v>
+        <v>7.836999119088</v>
       </c>
       <c r="R20">
-        <v>16.29059794312</v>
+        <v>31.347996476352</v>
       </c>
       <c r="S20">
-        <v>0.005918890616643189</v>
+        <v>0.01466311874204823</v>
       </c>
       <c r="T20">
-        <v>0.005127650774303484</v>
+        <v>0.00849341002256954</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H21">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I21">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J21">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P21">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q21">
-        <v>7.532083783213334</v>
+        <v>39.40546818569801</v>
       </c>
       <c r="R21">
-        <v>67.78875404892</v>
+        <v>236.432809114188</v>
       </c>
       <c r="S21">
-        <v>0.01641986875517722</v>
+        <v>0.07372810055389337</v>
       </c>
       <c r="T21">
-        <v>0.02133728046089392</v>
+        <v>0.06405898354970092</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H22">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I22">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J22">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N22">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O22">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P22">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q22">
-        <v>1.023639352326667</v>
+        <v>10.73752302512667</v>
       </c>
       <c r="R22">
-        <v>9.21275417094</v>
+        <v>64.42513815075999</v>
       </c>
       <c r="S22">
-        <v>0.002231523745832239</v>
+        <v>0.02009003353457457</v>
       </c>
       <c r="T22">
-        <v>0.002899819038136589</v>
+        <v>0.01745531375467251</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H23">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I23">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J23">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N23">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O23">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P23">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q23">
-        <v>9.39585381182</v>
+        <v>46.1059756578505</v>
       </c>
       <c r="R23">
-        <v>56.37512287092</v>
+        <v>184.423902631402</v>
       </c>
       <c r="S23">
-        <v>0.02048286913334064</v>
+        <v>0.08626482988143054</v>
       </c>
       <c r="T23">
-        <v>0.01774471038140197</v>
+        <v>0.04996771720937813</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H24">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I24">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J24">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N24">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O24">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P24">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q24">
-        <v>0.6483098315622222</v>
+        <v>3.500724319191</v>
       </c>
       <c r="R24">
-        <v>5.83478848406</v>
+        <v>21.004345915146</v>
       </c>
       <c r="S24">
-        <v>0.001413309072672225</v>
+        <v>0.006549896917871174</v>
       </c>
       <c r="T24">
-        <v>0.001836565962320792</v>
+        <v>0.00569090666600646</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H25">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I25">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J25">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N25">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O25">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P25">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q25">
-        <v>0.6035154575733334</v>
+        <v>13.572777950071</v>
       </c>
       <c r="R25">
-        <v>5.431639118160001</v>
+        <v>81.43666770042601</v>
       </c>
       <c r="S25">
-        <v>0.00131565777682404</v>
+        <v>0.02539482928569031</v>
       </c>
       <c r="T25">
-        <v>0.001709670119366781</v>
+        <v>0.02206440881072711</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H26">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I26">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J26">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N26">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O26">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P26">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q26">
-        <v>1.756227159670667</v>
+        <v>0.227187000944</v>
       </c>
       <c r="R26">
-        <v>10.537362958024</v>
+        <v>1.363122005664</v>
       </c>
       <c r="S26">
-        <v>0.003828557978913981</v>
+        <v>0.0004250695860585167</v>
       </c>
       <c r="T26">
-        <v>0.003316754702281992</v>
+        <v>0.0003693235742713406</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H27">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I27">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J27">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P27">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q27">
-        <v>4.872031151409333</v>
+        <v>1.142326291207334</v>
       </c>
       <c r="R27">
-        <v>43.848280362684</v>
+        <v>10.280936620866</v>
       </c>
       <c r="S27">
-        <v>0.01062098011383876</v>
+        <v>0.002137306103472667</v>
       </c>
       <c r="T27">
-        <v>0.01380174438891906</v>
+        <v>0.00278551167386207</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H28">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I28">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J28">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N28">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O28">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P28">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q28">
-        <v>0.6621278992486666</v>
+        <v>0.3112703748688889</v>
       </c>
       <c r="R28">
-        <v>5.959151093238</v>
+        <v>2.80143337382</v>
       </c>
       <c r="S28">
-        <v>0.001443432324668869</v>
+        <v>0.0005823905806583176</v>
       </c>
       <c r="T28">
-        <v>0.001875710506399071</v>
+        <v>0.0007590189156973037</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H29">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I29">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J29">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N29">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O29">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P29">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q29">
-        <v>6.077586732014</v>
+        <v>1.336567501939833</v>
       </c>
       <c r="R29">
-        <v>36.465520392084</v>
+        <v>8.019405011639</v>
       </c>
       <c r="S29">
-        <v>0.0132490794526588</v>
+        <v>0.00250073372344429</v>
       </c>
       <c r="T29">
-        <v>0.01147793681525467</v>
+        <v>0.002172773464239759</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H30">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I30">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J30">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N30">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O30">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P30">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q30">
-        <v>0.4193508444735555</v>
+        <v>0.101482601583</v>
       </c>
       <c r="R30">
-        <v>3.774157600261999</v>
+        <v>0.9133434142470001</v>
       </c>
       <c r="S30">
-        <v>0.0009141807269821616</v>
+        <v>0.0001898751568874321</v>
       </c>
       <c r="T30">
-        <v>0.001187958981548616</v>
+        <v>0.0002474607943274878</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.391799</v>
+      </c>
+      <c r="I31">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J31">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.012731</v>
+      </c>
+      <c r="N31">
+        <v>9.038193000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.1120240798785778</v>
+      </c>
+      <c r="P31">
+        <v>0.1315466014697712</v>
+      </c>
+      <c r="Q31">
+        <v>0.3934616643563334</v>
+      </c>
+      <c r="R31">
+        <v>3.541154979207001</v>
+      </c>
+      <c r="S31">
+        <v>0.0007361714627284828</v>
+      </c>
+      <c r="T31">
+        <v>0.0009594387065392706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.115013</v>
+      </c>
+      <c r="H32">
+        <v>0.345039</v>
+      </c>
+      <c r="I32">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J32">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.739568</v>
+      </c>
+      <c r="N32">
+        <v>3.479136</v>
+      </c>
+      <c r="O32">
+        <v>0.06468334032683895</v>
+      </c>
+      <c r="P32">
+        <v>0.05063717015681495</v>
+      </c>
+      <c r="Q32">
+        <v>0.200072934384</v>
+      </c>
+      <c r="R32">
+        <v>1.200437606304</v>
+      </c>
+      <c r="S32">
+        <v>0.000374338844417787</v>
+      </c>
+      <c r="T32">
+        <v>0.0003252459468835017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.115013</v>
+      </c>
+      <c r="H33">
+        <v>0.345039</v>
+      </c>
+      <c r="I33">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J33">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N33">
+        <v>26.240334</v>
+      </c>
+      <c r="O33">
+        <v>0.3252363909529882</v>
+      </c>
+      <c r="P33">
+        <v>0.3819155841363076</v>
+      </c>
+      <c r="Q33">
+        <v>1.005993178114</v>
+      </c>
+      <c r="R33">
+        <v>9.053938603025999</v>
+      </c>
+      <c r="S33">
+        <v>0.001882225224250459</v>
+      </c>
+      <c r="T33">
+        <v>0.002453069462754357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.115013</v>
+      </c>
+      <c r="H34">
+        <v>0.345039</v>
+      </c>
+      <c r="I34">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J34">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.383393333333333</v>
+      </c>
+      <c r="N34">
+        <v>7.15018</v>
+      </c>
+      <c r="O34">
+        <v>0.08862306165250171</v>
+      </c>
+      <c r="P34">
+        <v>0.1040674700017059</v>
+      </c>
+      <c r="Q34">
+        <v>0.2741212174466666</v>
+      </c>
+      <c r="R34">
+        <v>2.46709095702</v>
+      </c>
+      <c r="S34">
+        <v>0.0005128840644303973</v>
+      </c>
+      <c r="T34">
+        <v>0.0006684323534600189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.115013</v>
+      </c>
+      <c r="H35">
+        <v>0.345039</v>
+      </c>
+      <c r="I35">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J35">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>10.2340805</v>
+      </c>
+      <c r="N35">
+        <v>20.468161</v>
+      </c>
+      <c r="O35">
+        <v>0.3805396005869078</v>
+      </c>
+      <c r="P35">
+        <v>0.2979043507796429</v>
+      </c>
+      <c r="Q35">
+        <v>1.1770523005465</v>
+      </c>
+      <c r="R35">
+        <v>7.062313803278999</v>
+      </c>
+      <c r="S35">
+        <v>0.00220227888076155</v>
+      </c>
+      <c r="T35">
+        <v>0.001913459665103336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H31">
-        <v>1.671026</v>
-      </c>
-      <c r="I31">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J31">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.700844</v>
-      </c>
-      <c r="N31">
-        <v>2.102532</v>
-      </c>
-      <c r="O31">
-        <v>0.02753452131449232</v>
-      </c>
-      <c r="P31">
-        <v>0.03375079664312381</v>
-      </c>
-      <c r="Q31">
-        <v>0.3903761819813333</v>
-      </c>
-      <c r="R31">
-        <v>3.513385637832</v>
-      </c>
-      <c r="S31">
-        <v>0.0008510162470001193</v>
-      </c>
-      <c r="T31">
-        <v>0.00110587804383598</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.115013</v>
+      </c>
+      <c r="H36">
+        <v>0.345039</v>
+      </c>
+      <c r="I36">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J36">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.777051</v>
+      </c>
+      <c r="N36">
+        <v>2.331153</v>
+      </c>
+      <c r="O36">
+        <v>0.02889352660218545</v>
+      </c>
+      <c r="P36">
+        <v>0.0339288234557573</v>
+      </c>
+      <c r="Q36">
+        <v>0.089370966663</v>
+      </c>
+      <c r="R36">
+        <v>0.804338699967</v>
+      </c>
+      <c r="S36">
+        <v>0.0001672141436228338</v>
+      </c>
+      <c r="T36">
+        <v>0.000217927113172729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.115013</v>
+      </c>
+      <c r="H37">
+        <v>0.345039</v>
+      </c>
+      <c r="I37">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J37">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.012731</v>
+      </c>
+      <c r="N37">
+        <v>9.038193000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.1120240798785778</v>
+      </c>
+      <c r="P37">
+        <v>0.1315466014697712</v>
+      </c>
+      <c r="Q37">
+        <v>0.346503230503</v>
+      </c>
+      <c r="R37">
+        <v>3.118529074527</v>
+      </c>
+      <c r="S37">
+        <v>0.0006483116734049166</v>
+      </c>
+      <c r="T37">
+        <v>0.0008449326615575929</v>
       </c>
     </row>
   </sheetData>
